--- a/AEF_files/99.processed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
+++ b/AEF_files/99.processed/202504292100---AEF_CMA6_second_iteration - Guyana 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/99.processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AFF02D7-D96F-9448-A27E-FE7C66DB6311}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{95979CBD-5358-DB4C-A1FE-4EF9843C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2174D6AA-A56F-064C-BB93-D138394EFAFA}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4120" windowWidth="36160" windowHeight="19700" tabRatio="618" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="4120" windowWidth="36160" windowHeight="19700" tabRatio="618" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="162">
   <si>
     <t>Table</t>
   </si>
@@ -625,9 +625,6 @@
   </si>
   <si>
     <t>Unique identifier of the acquiring participating Party, or where the acquisition occurs by the Adaptation Fund, a unique identifier for the Adaptation Fund, as per common nomenclatures. This field is applicable to the actions type ‘first transfer’ and ‘transfer’. In other cases, this field is reported as ‘Not applicable’ (NA).</t>
-  </si>
-  <si>
-    <t>Guyana</t>
   </si>
   <si>
     <t>GUY 2024-CA1</t>
@@ -1247,27 +1244,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1277,6 +1253,27 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2020,7 +2017,7 @@
         <v>57</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2028,7 +2025,7 @@
         <v>58</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2225,7 +2222,7 @@
         <v>57</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2233,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2249,7 +2246,7 @@
         <v>98</v>
       </c>
       <c r="C82" s="74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -2257,7 +2254,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -2406,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2429,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -2497,8 +2494,8 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2550,12 +2547,12 @@
       </c>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
         <v>44</v>
@@ -2659,13 +2656,13 @@
     </row>
     <row r="8" spans="2:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="90">
         <v>45334</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="23">
         <v>1</v>
@@ -2684,25 +2681,25 @@
         <v>20</v>
       </c>
       <c r="K8" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="L8" s="85" t="s">
-        <v>147</v>
-      </c>
       <c r="M8" s="86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T8" s="24" t="s">
         <v>10</v>
@@ -3009,17 +3006,17 @@
       <c r="V6" s="38"/>
       <c r="W6" s="38"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="104" t="s">
+      <c r="Y6" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="Z6" s="104"/>
+      <c r="Z6" s="108"/>
       <c r="AA6" s="40"/>
-      <c r="AB6" s="103" t="s">
+      <c r="AB6" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
       <c r="AF6" s="36"/>
       <c r="AG6" s="23"/>
       <c r="AH6" s="23"/>
@@ -3157,38 +3154,38 @@
         <v>45292</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="J9" s="87" t="s">
         <v>160</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>161</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M9" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>151</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="24" t="s">
@@ -3213,12 +3210,12 @@
       </c>
       <c r="X9" s="19"/>
       <c r="Y9" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z9" s="46"/>
       <c r="AA9" s="46"/>
       <c r="AB9" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
@@ -3398,54 +3395,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
     </row>
     <row r="4" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
       <c r="E4" s="67"/>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="69"/>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="69"/>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="105"/>
+      <c r="T4" s="109"/>
       <c r="U4" s="36"/>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,16 +3450,16 @@
       <c r="C5" s="23"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="107"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="18"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -3483,10 +3480,10 @@
       <c r="G6" s="37"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="103" t="s">
+      <c r="J6" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="103"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="18"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -3554,32 +3551,32 @@
     </row>
     <row r="8" spans="2:21" ht="70" x14ac:dyDescent="0.2">
       <c r="B8" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="87" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="G8" s="87" t="s">
         <v>160</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>161</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>151</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="19" t="s">
@@ -4030,7 +4027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C8:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -4048,17 +4045,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="101" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="109"/>
-      <c r="D9" s="103" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -4093,7 +4090,7 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="110">
+      <c r="C11" s="103">
         <v>45334</v>
       </c>
       <c r="D11" s="53"/>
@@ -4106,7 +4103,7 @@
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="111"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -4139,13 +4136,23 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4426,18 +4433,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4449,15 +4446,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168BBF08-48BD-4636-A0FB-E838CA0D3218}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFB6A14-5549-4561-A996-963FBD83FE7F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738D7FAE-A5D2-4687-8D1F-55B8A85B6F7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4477,19 +4484,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{168BBF08-48BD-4636-A0FB-E838CA0D3218}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>